--- a/Leertaken/Leertaak 1 Tom Ward Yuri/verslag/testdata.xlsx
+++ b/Leertaken/Leertaak 1 Tom Ward Yuri/verslag/testdata.xlsx
@@ -101,12 +101,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -150,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -164,6 +170,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -444,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1142,113 +1152,244 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="14">
         <v>60</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="14">
         <v>60</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="14">
         <v>10</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="13">
         <v>600</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="14">
         <v>600</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="14">
         <f>F3/C3</f>
         <v>10</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="15">
         <f>((A3*10)*B3)/C3</f>
         <v>10</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="13">
         <f>D3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="16">
         <f>D3-G3-I3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B5" s="14">
         <v>60</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C5" s="14">
         <v>64</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D5" s="14">
         <v>100</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E5" s="13">
         <v>6000</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F5" s="14">
         <v>4860</v>
       </c>
-      <c r="G4" s="10">
-        <f>F4/C4</f>
+      <c r="G5" s="14">
+        <f>F5/C5</f>
         <v>75.9375</v>
       </c>
-      <c r="H4" s="11">
-        <f>((A4*10)*B4)/C4</f>
+      <c r="H5" s="15">
+        <f>((A5*10)*B5)/C5</f>
         <v>93.75</v>
       </c>
-      <c r="I4" s="9">
-        <f>D4-H4</f>
+      <c r="I5" s="13">
+        <f>D5-H5</f>
         <v>6.25</v>
       </c>
-      <c r="J4" s="12">
-        <f>D4-G4-I4</f>
+      <c r="J5" s="16">
+        <f>D5-G5-I5</f>
         <v>17.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
         <v>20</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B7" s="14">
         <v>60</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C7" s="14">
         <v>86</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D7" s="14">
         <v>200</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E7" s="13">
         <v>12000</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F7" s="14">
         <v>11395</v>
       </c>
-      <c r="G5" s="10">
-        <f>F5/C5</f>
+      <c r="G7" s="14">
+        <f>F7/C7</f>
         <v>132.5</v>
       </c>
-      <c r="H5" s="11">
-        <f>((A5*10)*B5)/C5</f>
+      <c r="H7" s="15">
+        <f>((A7*10)*B7)/C7</f>
         <v>139.53488372093022</v>
       </c>
-      <c r="I5" s="9">
-        <f>D5-H5</f>
+      <c r="I7" s="13">
+        <f>D7-H7</f>
         <v>60.465116279069775</v>
       </c>
-      <c r="J5" s="12">
-        <f>D5-G5-I5</f>
+      <c r="J7" s="16">
+        <f>D7-G7-I7</f>
         <v>7.0348837209302246</v>
       </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>30</v>
+      </c>
+      <c r="B9" s="14">
+        <v>60</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>40</v>
+      </c>
+      <c r="B11" s="14">
+        <v>60</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>40</v>
+      </c>
+      <c r="B12" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>50</v>
+      </c>
+      <c r="B13" s="14">
+        <v>60</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>50</v>
+      </c>
+      <c r="B14" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>100</v>
+      </c>
+      <c r="B16" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>200</v>
+      </c>
+      <c r="B17" s="14">
+        <v>60</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>400</v>
+      </c>
+      <c r="B18" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>800</v>
+      </c>
+      <c r="B19" s="14">
+        <v>60</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leertaken/Leertaak 1 Tom Ward Yuri/verslag/testdata.xlsx
+++ b/Leertaken/Leertaak 1 Tom Ward Yuri/verslag/testdata.xlsx
@@ -645,8 +645,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="443703552"/>
-        <c:axId val="443706688"/>
+        <c:axId val="259820704"/>
+        <c:axId val="259821096"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredAreaSeries>
@@ -761,7 +761,7 @@
         </c:extLst>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="443703552"/>
+        <c:axId val="259820704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443706688"/>
+        <c:crossAx val="259821096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -812,7 +812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443706688"/>
+        <c:axId val="259821096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443703552"/>
+        <c:crossAx val="259820704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1351,11 +1351,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="300624760"/>
-        <c:axId val="300622800"/>
+        <c:axId val="259817176"/>
+        <c:axId val="261396968"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="300624760"/>
+        <c:axId val="259817176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300622800"/>
+        <c:crossAx val="261396968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1406,7 +1406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300622800"/>
+        <c:axId val="261396968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300624760"/>
+        <c:crossAx val="259817176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1904,116 +1904,6 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad1!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Verlies applicatie =&gt; database</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Blad1!$A$2:$A$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Blad1!$A$3,Blad1!$A$5,Blad1!$A$7,Blad1!$A$9)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Blad1!$K$3:$K$13</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Blad1!$K$4,Blad1!$K$6,Blad1!$K$8,Blad1!$K$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0975609756042104E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9525691699395793E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5810276679843582E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
@@ -2133,12 +2023,138 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="521693808"/>
-        <c:axId val="521691456"/>
-        <c:axId val="435807216"/>
+        <c:axId val="261400496"/>
+        <c:axId val="261397360"/>
+        <c:axId val="262321296"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Verlies applicatie =&gt; database</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:sp3d/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Blad1!$A$2:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$A$3,Blad1!$A$5,Blad1!$A$7,Blad1!$A$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Blad1!$K$3:$K$13</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$K$4,Blad1!$K$6,Blad1!$K$8,Blad1!$K$10)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.0975609756042104E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.9525691699395793E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.5810276679843582E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="521693808"/>
+        <c:axId val="261400496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521691456"/>
+        <c:crossAx val="261397360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2182,7 +2198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521691456"/>
+        <c:axId val="261397360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,12 +2248,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521693808"/>
+        <c:crossAx val="261400496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="435807216"/>
+        <c:axId val="262321296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2288,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521691456"/>
+        <c:crossAx val="261397360"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -4091,14 +4108,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11204</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11203</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>12326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1815353</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
@@ -4121,16 +4138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558255</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2084294</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>675409</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:rowOff>5093</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4151,16 +4168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1188843</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>1118</xdr:rowOff>
+      <xdr:rowOff>18436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2303318</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:rowOff>28523</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4450,15 +4467,14 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="39.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
